--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_24</t>
+          <t>model_12_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999818430878983</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989021467722907</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999447459020686</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999591421679872</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999535629820494</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G2" t="n">
-        <v>1.694868045060665e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001024797797879427</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I2" t="n">
-        <v>4.93654013670037e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>5.630029890826103e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>5.283285013763236e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002498412376493599</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004116877512218046</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000087153178088</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004292141511024468</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P2" t="n">
-        <v>79.97064115337996</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q2" t="n">
-        <v>115.3180400745578</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_23</t>
+          <t>model_12_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999817692733011</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989013724554863</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999456648824903</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999582792778446</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999534012635066</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G3" t="n">
-        <v>1.701758313705009e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001025520588627834</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I3" t="n">
-        <v>4.854436113533811e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>5.748932364500462e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>5.301684239017136e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002514338843939069</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004125237343117373</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000087507488155</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004300857237232415</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P3" t="n">
-        <v>79.9625268925012</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q3" t="n">
-        <v>115.309925813679</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_22</t>
+          <t>model_12_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999817030760864</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989006200830244</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999466657624474</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999574064422665</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999953265678872</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G4" t="n">
-        <v>1.707937533124724e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001026222895295696</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I4" t="n">
-        <v>4.765014979800028e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.869205275532123e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>5.317110127666076e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002531088871336741</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004132720088664032</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000087825234786</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004308658538748413</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P4" t="n">
-        <v>79.9552778867693</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.3026768079471</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_21</t>
+          <t>model_12_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999815957100431</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988996389485736</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999477873145598</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999562934034907</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999953032013998</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G5" t="n">
-        <v>1.717959681986064e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001027138741238644</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I5" t="n">
-        <v>4.664812692092952e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>6.022577132746631e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>5.343694912419791e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002550334621237783</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004144827718960179</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000088340591793</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004321281615932517</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P5" t="n">
-        <v>79.94357621935536</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.2909751405332</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_20</t>
+          <t>model_12_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999981462370673</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998898505955418</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999489829466943</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999550393265694</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999527420267683</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73040632688733e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001028196340616756</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I6" t="n">
-        <v>4.557991908807942e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>6.195383427280907e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>5.376687668044425e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002572416775732938</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004159815292639001</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00008898062077</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004336907241651401</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P6" t="n">
-        <v>79.92913842601057</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.2765373471884</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_19</t>
+          <t>model_12_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999813157346451</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988972944241917</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999503183002334</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999536592410957</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999952430591753</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G7" t="n">
-        <v>1.744094156429418e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001029327251836469</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I7" t="n">
-        <v>4.438688063679165e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>6.385553147155016e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>5.412120605417091e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002596145066693838</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004176235333921471</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000089684473703</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004354026318085438</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P7" t="n">
-        <v>79.91338030432489</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.2607792255027</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_18</t>
+          <t>model_12_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999981121096696</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988958393453859</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999517725073942</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999520235809459</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999952011053945</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G8" t="n">
-        <v>1.762262754622874e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001030685504031083</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I8" t="n">
-        <v>4.308765536924137e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>6.610939935450387e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>5.459852736187262e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002623236292581985</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004197931341295227</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000090618735859</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004376645969410021</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P8" t="n">
-        <v>79.89265365126498</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.2400525724428</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_17</t>
+          <t>model_12_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999809494016222</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998894488400647</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999533948982402</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999504067250976</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999516689382109</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77828973610268e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001031946551645198</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I9" t="n">
-        <v>4.163817056574902e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>6.833735573571452e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>5.498776315073176e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002650230191343757</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004216977277746088</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000091442872213</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004396502730806118</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P9" t="n">
-        <v>79.87454676993239</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.2219456911102</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_16</t>
+          <t>model_12_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999980697565046</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998892776725941</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999955153729483</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999484004417662</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999511445673687</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G10" t="n">
-        <v>1.801797575055139e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001033544324849469</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I10" t="n">
-        <v>4.006678647864221e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>7.11019260930264e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>5.558435628583431e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002681635849932035</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004244758620999713</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000092651687779</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004425466783357359</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P10" t="n">
-        <v>79.84828129116335</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.1956802123412</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_15</t>
+          <t>model_12_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999803686790164</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.998890749710147</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999570640692028</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999460179358115</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999504518541577</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G11" t="n">
-        <v>1.832497642283583e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001035436455117382</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I11" t="n">
-        <v>3.836004090587352e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>7.438491470989836e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>5.637247780788594e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002718184129855669</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004280768204754356</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000094230340721</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004463009369642551</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P11" t="n">
-        <v>79.81449119360869</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.1618901147865</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_14</t>
+          <t>model_12_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999799920569102</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988885725083647</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999591430109416</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999433841645767</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999496731807402</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G12" t="n">
-        <v>1.867653662711564e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001037468777413084</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I12" t="n">
-        <v>3.650266204720589e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>7.801413585226652e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>5.725839894973621e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002757203167665339</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00432163587396204</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000096038126831</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004505616860136144</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P12" t="n">
-        <v>79.77648509550789</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.1238840166857</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_13</t>
+          <t>model_12_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999794189031581</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988855505607708</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999613570251495</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999399054872578</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999948435890106</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G13" t="n">
-        <v>1.921155049615865e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001040289632843873</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I13" t="n">
-        <v>3.452460604599753e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>8.280760048840632e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>5.866610326720192e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002806843251341594</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004383098275895563</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000098789264841</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00456969584376469</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P13" t="n">
-        <v>79.71999774294133</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q13" t="n">
-        <v>115.0673966641191</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999788755487889</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.998882799482634</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999637394672116</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999365308772247</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999473277502768</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97187479492527e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001042857643526135</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I14" t="n">
-        <v>3.239607236194474e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>8.745766497304505e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>5.992686866749489e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002853878878540436</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004440579686173046</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000101397365813</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004629624356680608</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P14" t="n">
-        <v>79.66788140444531</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.0152803256231</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_11</t>
+          <t>model_12_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999782422988822</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988797658879496</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999663931559588</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999327179843778</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999460606995278</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G15" t="n">
-        <v>2.030985894077583e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001045689371004665</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I15" t="n">
-        <v>3.002520006444561e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>9.271166393505694e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>6.136843199975128e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002904460021082387</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004506646085591349</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000104436965365</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004698503339498449</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P15" t="n">
-        <v>79.60880825541004</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.9562071765879</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_10</t>
+          <t>model_12_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999977371287702</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988759047435775</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999691383432467</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999279782266784</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999442682910121</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112290964445726e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00104929357979135</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I16" t="n">
-        <v>2.757258066840594e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>9.924284197552718e-05</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>6.340771132196655e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002964949784569352</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004595966671382339</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00010861781903</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004791626487545664</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P16" t="n">
-        <v>79.5303046827175</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.8777036038953</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_9</t>
+          <t>model_12_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999763285695048</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988715720986315</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999720604234789</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999225759090704</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999421441091496</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G17" t="n">
-        <v>2.209624131151457e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001053337913667214</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I17" t="n">
-        <v>2.496192066520838e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001066869984848471</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>6.582445957502776e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000303125735514014</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004700663922417191</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000113622866377</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004900780917310257</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P17" t="n">
-        <v>79.4402060806145</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.7876050017923</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_8</t>
+          <t>model_12_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999751517017034</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988669811751758</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999751864781231</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999166847678213</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999398039968499</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G18" t="n">
-        <v>2.319479574565357e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001057623339194972</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I18" t="n">
-        <v>2.216902478985833e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001148047325128039</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>6.848687865133113e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003097982632151104</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004816097563967488</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000119271831824</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00502112880796193</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P18" t="n">
-        <v>79.34316525152767</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.6905641727055</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_7</t>
+          <t>model_12_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999736067185259</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988614010795055</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999784059060333</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999094581022487</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999366917901987</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G19" t="n">
-        <v>2.463696972499399e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001062832113565244</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I19" t="n">
-        <v>1.929270688936943e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001247627604305712</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>7.202773365997033e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003177831629030303</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00496356421586283</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000126687751076</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005174873420526509</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P19" t="n">
-        <v>79.22252481760407</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q19" t="n">
-        <v>114.5699237387819</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_6</t>
+          <t>model_12_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999718470001278</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988555212494135</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999817434888016</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999015821974035</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999332328142033</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G20" t="n">
-        <v>2.62795896069006e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001068320676861485</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I20" t="n">
-        <v>1.631082646554297e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001356154115653819</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>7.596311901546246e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003258810584460729</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005126362219634952</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000135134399387</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005344602072357537</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P20" t="n">
-        <v>79.09343596129115</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.440834882469</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_5</t>
+          <t>model_12_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999699463577254</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998849660088082</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999852036090053</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E21" t="n">
-        <v>0.99989345329902</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999296687448719</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G21" t="n">
-        <v>2.805375586090866e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001073791813689156</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I21" t="n">
-        <v>1.321946801377746e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001468166766898783</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>8.001807235182788e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003331964500229479</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005296579637927542</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000144257482918</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005522065998545474</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P21" t="n">
-        <v>78.96277607234917</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.310174993527</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_4</t>
+          <t>model_12_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999671610568059</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988412812714573</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999886028475627</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998821582094375</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999241634150848</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G22" t="n">
-        <v>3.065371200865476e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001081613071220695</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I22" t="n">
-        <v>1.018250275673227e-05</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001623808142949086</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>8.628165852582043e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003430018019370094</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00553657945022509</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000157626927332</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005772283099720629</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P22" t="n">
-        <v>78.78551358666864</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q22" t="n">
-        <v>114.1329125078465</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_3</t>
+          <t>model_12_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999639984240868</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988323410532596</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999919038181777</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998700024462482</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999180983022155</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G23" t="n">
-        <v>3.360589082845646e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001089958372478074</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I23" t="n">
-        <v>7.233332552003495e-06</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001791309223476742</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>9.318212744983883e-05</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003525314303893141</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005797058808435228</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000172807564383</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006043851603476378</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P23" t="n">
-        <v>78.60161836817356</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.9490172893514</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_2</t>
+          <t>model_12_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999604470058874</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988230833896921</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999949507048759</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998572049190563</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999115447930266</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G24" t="n">
-        <v>3.692098382830481e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001098599995053981</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I24" t="n">
-        <v>4.511167311678069e-06</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001967653530233962</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001006382601675371</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003609308102134991</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006076263969603757</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000189854371741</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006334943106390212</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P24" t="n">
-        <v>78.41346100222822</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.760859923406</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_1</t>
+          <t>model_12_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999955671695974</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988110713581454</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999997493687875</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998406749001586</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999025331419981</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G25" t="n">
-        <v>4.137852602062056e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001109812699235508</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2392023149906e-06</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000219542993418344</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001108910978666673</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003741320121131488</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006432614244661385</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000212775859325</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006706463950403806</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P25" t="n">
-        <v>78.18549701371194</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.5328959348898</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_5_0</t>
+          <t>model_12_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999497114530074</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987966185234305</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.99999925267753</v>
+        <v>0.9999999999998973</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998209794379519</v>
+        <v>0.9999994636804617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998912967648094</v>
+        <v>0.999999664704229</v>
       </c>
       <c r="G26" t="n">
-        <v>4.694215120556054e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001123303786035781</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I26" t="n">
-        <v>6.676766984840023e-07</v>
+        <v>5.09579840977513e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002466824757341398</v>
+        <v>4.50933016801211e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001236750762163119</v>
+        <v>2.254665338795976e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003890447413835163</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006851434244416314</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000241385025565</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007143113984625221</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P26" t="n">
-        <v>77.93318907951107</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.2805880006889</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
   </sheetData>
